--- a/biology/Zoologie/Clarazia/Clarazia.xlsx
+++ b/biology/Zoologie/Clarazia/Clarazia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarazia schinzi
-Clarazia est un genre fossile de sauroptérygiens de la famille des Claraziidae[1] (ordre des Thalattosauria), qui a vécu à la fin du Trias supérieur, il y a environ 207 millions d'années. Ses restes fossiles ont été découverts en Suisse. Une seule espèce est rattachée au genre, Clarazia schinzi.
+Clarazia est un genre fossile de sauroptérygiens de la famille des Claraziidae (ordre des Thalattosauria), qui a vécu à la fin du Trias supérieur, il y a environ 207 millions d'années. Ses restes fossiles ont été découverts en Suisse. Une seule espèce est rattachée au genre, Clarazia schinzi.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrissait de coquillages et de poissons.
 </t>
@@ -569,9 +585,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004)[2] et Wu et al. (2009)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004) et Wu et al. (2009) :
 </t>
         </is>
       </c>
@@ -600,7 +618,9 @@
           <t>Espèces contemporaines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Helveticosaurus
 Askeptosaurus
@@ -635,7 +655,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cookies est un personnage marrant et goinfre dans Les Thalattosaures.
 </t>
@@ -666,9 +688,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clarazia Peyer, 1936[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clarazia Peyer, 1936.
 </t>
         </is>
       </c>
